--- a/docs/assets/disciplinas/LOT2056.xlsx
+++ b/docs/assets/disciplinas/LOT2056.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Conduzir os alunos no desenvolvimento de um projeto de conclusão de curso, sobre um tema específico relacionado à Engenharia Bioquímica.</t>
+    <t>1304060 - Maria das Graças de Almeida Felipe</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,61 +79,49 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>1304060 - Maria das Graças de Almeida Felipe</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>1) Research Methodology in Engineering. 2) Elements of a Research Project. 3) Research Methods. 4) Guidelines of a research project.5) Steps in writing scientific texts</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>1. Research Methodology in Engineering: principles and definition.2. Scientific Project: what is a research project. The elements that make up a research project.3. Research Methods used in Biochemical Engineering.4. Rules for preparation of text and Bibliographical References.5. Steps in writing scientific texts</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>8853480 - Tatiane da Franca Silva</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>1) Metodologia de pesquisa em Engenharia 2) Elementos de projeto de monografia 3) Métodos de pesquisa4) Normas de um projeto de pesquisa.5) Etapas de elaboração de textos científicos</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>1) Research Methodology in Engineering. 2) Elements of a Research Project. 3) Research Methods. 4) Guidelines of a research project.5) Steps in writing scientific texts</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>1. Metodologia Cientifica em engenharia: Concepção e definição. 2. Monografia Cientifica: O que é um projeto de pesquisa. Os elementos que compõem um projeto de pesquisa. 3. Métodos de Pesquisa utilizados na Engenharia Bioquímica. 4. Normas para elaboração de do texto e das Referências Bibliográficas.5. Etapas de elaboração de textos científicos</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>1. Research Methodology in Engineering: principles and definition.2. Scientific Project: what is a research project. The elements that make up a research project.3. Research Methods used in Biochemical Engineering.4. Rules for preparation of text and Bibliographical References.5. Steps in writing scientific texts</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Apresentação de um pré-projeto e um projeto. O projeto será avaliado por dois examinadores. A média (M) será calculada levando-se a nota do pré-projeto(NPP) e a média da nova dos dois examinadores (NP) M = (0,3PP + 0,7NP), conforme Norma para Trabalho de Conclusão de Curso do curso de Engenharia Bioquímica.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>M=≥ 5,0 para ser aprovado</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>(NF+RP)/2 ≥ 5,0 para ser aprovado, onde RP é a nota do projeto modificado apresentado.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>SANTOS, C. R. Trabalho de Conclusão de Curso – Guia de elaboração passo a passo, Cengage Learning, 2010.ANDRADE, Maria Margarida de. Introdução à metodologia do trabalho científico. 10.ed. São Paulo: Atlas, 2010.BOOTH, W.; COLOMB, G.; WILLIAMS, J. A arte da Pesquisa. 3 ed. Martins Fontes. São Paulo. 2005. GIL, A.C. Como elaborar projetos de pesquisa. 5 ed. Atlas, São Paulo, 2010. MEDEIROS, J. B. Redação Cientifica: A Prática de Fichamentos, Resumos e Resenhas. 11 ed. São Paulo: Atlas, 2009SERAFINI, Maria José. Como escrever textos. 5.ed. São Paulo: Globo, 1992.SEVERINO, Antonio Joaquim. Metodologia do trabalho científico. 23.ed. São Paulo: Cortez, 2009.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,34 +615,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -665,30 +659,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -703,7 +697,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -714,39 +708,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOT2056.xlsx
+++ b/docs/assets/disciplinas/LOT2056.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,21 +67,30 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Conduzir os alunos no desenvolvimento de um projeto de conclusão de curso, sobre um tema específico relacionado à Engenharia Bioquímica.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Lead students to develop a course completion project on a specific topic related to Biochemical engineering.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>1304060 - Maria das Graças de Almeida Felipe</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Lead students to develop a course completion project on a specific topic related to Biochemical engineering.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>8853480 - Tatiane da Franca Silva</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>1) Metodologia de pesquisa em Engenharia 2) Elementos de projeto de monografia 3) Métodos de pesquisa4) Normas de um projeto de pesquisa.5) Etapas de elaboração de textos científicos</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -91,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Metodologia Cientifica em engenharia: Concepção e definição. 2. Monografia Cientifica: O que é um projeto de pesquisa. Os elementos que compõem um projeto de pesquisa. 3. Métodos de Pesquisa utilizados na Engenharia Bioquímica. 4. Normas para elaboração de do texto e das Referências Bibliográficas.5. Etapas de elaboração de textos científicos</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -103,25 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>8853480 - Tatiane da Franca Silva</t>
+    <t>Apresentação de um pré-projeto e um projeto. O projeto será avaliado por dois examinadores. A média (M) será calculada levando-se a nota do pré-projeto(NPP) e a média da nova dos dois examinadores (NP) M = (0,3PP + 0,7NP), conforme Norma para Trabalho de Conclusão de Curso do curso de Engenharia Bioquímica.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Apresentação de um pré-projeto e um projeto. O projeto será avaliado por dois examinadores. A média (M) será calculada levando-se a nota do pré-projeto(NPP) e a média da nova dos dois examinadores (NP) M = (0,3PP + 0,7NP), conforme Norma para Trabalho de Conclusão de Curso do curso de Engenharia Bioquímica.</t>
+    <t>M=≥ 5,0 para ser aprovado</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>M=≥ 5,0 para ser aprovado</t>
+    <t>(NF+RP)/2 ≥ 5,0 para ser aprovado, onde RP é a nota do projeto modificado apresentado.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>(NF+RP)/2 ≥ 5,0 para ser aprovado, onde RP é a nota do projeto modificado apresentado.</t>
+    <t>SANTOS, C. R. Trabalho de Conclusão de Curso – Guia de elaboração passo a passo, Cengage Learning, 2010.ANDRADE, Maria Margarida de. Introdução à metodologia do trabalho científico. 10.ed. São Paulo: Atlas, 2010.BOOTH, W.; COLOMB, G.; WILLIAMS, J. A arte da Pesquisa. 3 ed. Martins Fontes. São Paulo. 2005. GIL, A.C. Como elaborar projetos de pesquisa. 5 ed. Atlas, São Paulo, 2010. MEDEIROS, J. B. Redação Cientifica: A Prática de Fichamentos, Resumos e Resenhas. 11 ed. São Paulo: Atlas, 2009SERAFINI, Maria José. Como escrever textos. 5.ed. São Paulo: Globo, 1992.SEVERINO, Antonio Joaquim. Metodologia do trabalho científico. 23.ed. São Paulo: Cortez, 2009.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -484,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -615,40 +627,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -659,30 +665,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -697,7 +703,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -708,17 +714,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
